--- a/profiles/oxford/spectra/oxford_pub_crawl_list.xlsx
+++ b/profiles/oxford/spectra/oxford_pub_crawl_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\thomashuet\profiles\oxford\spectra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A8413A-370C-434F-9EEF-68BB5B8F60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A5947D-BA38-4A99-B80B-5BFE80DAADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A3A7F5B-65F3-4248-A5F1-45EB9084640A}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1041,9 @@
       <c r="B34" t="s">
         <v>91</v>
       </c>
+      <c r="C34" s="1">
+        <v>45569</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">

--- a/profiles/oxford/spectra/oxford_pub_crawl_list.xlsx
+++ b/profiles/oxford/spectra/oxford_pub_crawl_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\thomashuet\profiles\oxford\spectra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A5947D-BA38-4A99-B80B-5BFE80DAADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F50AA-3185-4377-B478-8068A785D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A3A7F5B-65F3-4248-A5F1-45EB9084640A}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,6 +811,9 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
+      <c r="C6" s="1">
+        <v>45583</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
